--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -641,16 +641,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1480,7 +1477,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
@@ -1492,13 +1489,13 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1"/>
@@ -1507,16 +1504,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -1536,20 +1533,24 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="3"/>

--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1BD2E-3FF8-4163-B945-FC8BEE8F5782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0222A7-F06E-4BDB-9402-C99CC6B900FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -535,9 +535,6 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -550,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -562,9 +559,6 @@
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0222A7-F06E-4BDB-9402-C99CC6B900FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F06E7-AA9B-4AA2-8CD8-1E26FA2A1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -572,13 +572,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F06E7-AA9B-4AA2-8CD8-1E26FA2A1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BF4B7-2BFC-4E47-A9DA-3F793488EDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="5040" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -76,6 +85,30 @@
   </si>
   <si>
     <t>CharacterInteract0002</t>
+  </si>
+  <si>
+    <t>Dialogue0081</t>
+  </si>
+  <si>
+    <t>Dialogue0083</t>
+  </si>
+  <si>
+    <t>Dialogue0086</t>
+  </si>
+  <si>
+    <t>Dialogue0088</t>
+  </si>
+  <si>
+    <t>Dialogue0091</t>
+  </si>
+  <si>
+    <t>Dialogue0093</t>
+  </si>
+  <si>
+    <t>Dialogue0096</t>
+  </si>
+  <si>
+    <t>Dialogue0098</t>
   </si>
 </sst>
 </file>
@@ -450,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -670,22 +703,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BF4B7-2BFC-4E47-A9DA-3F793488EDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9031A77E-E627-4DA7-91CA-1AA1D615C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="5040" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="3930" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -722,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -764,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -792,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>

--- a/Excels/DialogueInteractNode_对话交互节点表.xlsx
+++ b/Excels/DialogueInteractNode_对话交互节点表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9031A77E-E627-4DA7-91CA-1AA1D615C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781791D-6AFC-4126-9F65-2CA0D253DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="3930" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17265" yWindow="3615" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>int</t>
   </si>
@@ -109,6 +109,44 @@
   </si>
   <si>
     <t>Dialogue0098</t>
+  </si>
+  <si>
+    <t>Dialogue0101</t>
+  </si>
+  <si>
+    <t>Dialogue0107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0103</t>
+  </si>
+  <si>
+    <t>Dialogue0105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0121</t>
+  </si>
+  <si>
+    <t>Dialogue0123</t>
+  </si>
+  <si>
+    <t>Dialogue0126</t>
+  </si>
+  <si>
+    <t>Dialogue0110</t>
+  </si>
+  <si>
+    <t>Dialogue0118</t>
+  </si>
+  <si>
+    <t>Dialogue0112</t>
+  </si>
+  <si>
+    <t>Dialogue0114</t>
+  </si>
+  <si>
+    <t>Dialogue0116</t>
   </si>
 </sst>
 </file>
@@ -483,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -815,30 +853,186 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>109</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>107</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>112</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>116</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>123</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>128</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="51" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
